--- a/xlsx/朝代_intext.xlsx
+++ b/xlsx/朝代_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>朝代</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A3%E5%B2%B8%E6%96%B0%E5%A1%AB%E6%B5%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>新口岸新填海區</t>
+    <t>新口岸新填海区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%A4</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AD%90%E6%B4%B2%E5%90%84%E5%9C%8B%E7%8E%8B%E5%AE%A4</t>
   </si>
   <si>
-    <t>Template talk-歐洲各國王室</t>
+    <t>Template talk-欧洲各国王室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>阿爾巴尼亞君主列表</t>
+    <t>阿尔巴尼亚君主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>英國君主列表</t>
+    <t>英国君主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%9B%BC%E7%8E%8B%E6%9C%9D</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%96%8B%E6%96%AF%E7%89%B9%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>蘭開斯特王朝</t>
+    <t>兰开斯特王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>約克王朝</t>
+    <t>约克王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E9%93%8E%E7%8E%8B%E6%9C%9D</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8E%8E%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>溫莎王朝</t>
+    <t>温莎王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%9B%A7%E7%93%A6%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>瓦盧瓦王朝</t>
+    <t>瓦卢瓦王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E6%9C%88%E7%8E%8B%E6%9C%9D</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>盧森堡王朝</t>
+    <t>卢森堡王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>奧地利哈布斯堡王朝</t>
+    <t>奥地利哈布斯堡王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%89%B9%E5%B0%94%E6%96%AF%E5%B7%B4%E8%B5%AB%E7%8E%8B%E6%9C%9D</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB-%E6%8B%BF%E9%A8%B7%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>奧蘭治-拿騷王朝</t>
+    <t>奥兰治-拿骚王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%BB%9F%E6%B2%BB%E8%80%85%E5%88%97%E8%A1%A8</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%9A%86%E7%B4%8D%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>科隆納家族</t>
+    <t>科隆纳家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%AC%AC%E5%A5%87%E5%AE%B6%E6%97%8F</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%88%BE%E8%93%8B%E5%A1%9E%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>博爾蓋塞家族</t>
+    <t>博尔盖塞家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A6%8F%E5%B0%94%E6%89%8E%E5%AE%B6%E6%97%8F</t>
@@ -395,25 +395,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%BE%85%E6%A2%85%E5%A5%A7%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>博羅梅奧家族</t>
+    <t>博罗梅奥家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%90%89%E4%BA%9E%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>波吉亞家族</t>
+    <t>波吉亚家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E8%B2%BB%E7%88%BE%E7%89%B9%E7%BE%85%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>蒙特費爾特羅家族</t>
+    <t>蒙特费尔特罗家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E8%A5%BF%E5%B0%BC%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>奧爾西尼家族</t>
+    <t>奥尔西尼家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%C2%B7%E6%89%98%E9%9B%B7%E5%AE%B6%E6%97%8F</t>
@@ -425,19 +425,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%96%AF%E5%AD%94%E8%92%82%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>維斯孔蒂家族</t>
+    <t>维斯孔蒂家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E6%89%8E%E5%8A%A0%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>貢扎加家族</t>
+    <t>贡扎加家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%88%BE%E5%85%A7%E5%A1%9E%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>法爾內塞家族</t>
+    <t>法尔内塞家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%C2%B7%E7%BD%97%E9%9F%A6%E9%9B%B7%E5%AE%B6%E6%97%8F</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A5%87%E4%BA%9E%E5%A5%A7%E9%87%8C%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>阿奇亞奧里家族</t>
+    <t>阿奇亚奥里家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E9%A9%AC%E5%B0%94%E8%BF%AA%E5%AE%B6%E6%97%8F</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E6%B3%B0%E6%96%AF%E5%A1%94%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>馬拉泰斯塔家族</t>
+    <t>马拉泰斯塔家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E7%95%A5-%E5%85%8B%E5%8A%B3%E7%8B%84%E7%8E%8B%E6%9C%9D</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E5%8D%9A%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>齊博家族</t>
+    <t>齐博家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E9%87%8C%E5%B0%BC%E5%AE%B6%E6%97%8F</t>
   </si>
   <si>
-    <t>巴貝里尼家族</t>
+    <t>巴贝里尼家族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BB%B4%E9%B2%81%E7%8E%8B%E6%9C%9D</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%88%BE%E6%96%AF%E5%9D%A6-%E5%93%A5%E6%89%98%E6%99%AE%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>霍爾斯坦-哥托普王朝</t>
+    <t>霍尔斯坦-哥托普王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E7%BA%B3%E5%A4%9A%E7%89%B9%E7%8E%8B%E6%9C%9D</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B6%AD%E6%96%AF%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>阿維斯王朝</t>
+    <t>阿维斯王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%94%98%E8%96%A9%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>布拉甘薩王朝</t>
+    <t>布拉甘萨王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>俄國君主列表</t>
+    <t>俄国君主列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E9%87%8C%E5%85%8B%E7%8E%8B%E6%9C%9D</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%96%A9%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>瓦薩王朝</t>
+    <t>瓦萨王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E8%AF%BA%E5%A4%AB%E7%8E%8B%E6%9C%9D</t>
@@ -635,9 +635,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%90%A8%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>瓦萨王朝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -653,13 +650,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B8%83%E9%9B%B7%E8%AB%BE%E7%B6%AD%E5%A5%87%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>歐布雷諾維奇王朝</t>
+    <t>欧布雷诺维奇王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E5%96%AC%E5%82%91%E7%B6%AD%E5%A5%87%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>卡拉喬傑維奇王朝</t>
+    <t>卡拉乔杰维奇王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -4267,7 +4264,7 @@
         <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4322,10 +4319,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" t="s">
         <v>207</v>
-      </c>
-      <c r="F114" t="s">
-        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4351,10 +4348,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>208</v>
+      </c>
+      <c r="F115" t="s">
         <v>209</v>
-      </c>
-      <c r="F115" t="s">
-        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4380,10 +4377,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" t="s">
         <v>211</v>
-      </c>
-      <c r="F116" t="s">
-        <v>212</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4409,10 +4406,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>212</v>
+      </c>
+      <c r="F117" t="s">
         <v>213</v>
-      </c>
-      <c r="F117" t="s">
-        <v>214</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4438,10 +4435,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>214</v>
+      </c>
+      <c r="F118" t="s">
         <v>215</v>
-      </c>
-      <c r="F118" t="s">
-        <v>216</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4467,10 +4464,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>216</v>
+      </c>
+      <c r="F119" t="s">
         <v>217</v>
-      </c>
-      <c r="F119" t="s">
-        <v>218</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4496,10 +4493,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>218</v>
+      </c>
+      <c r="F120" t="s">
         <v>219</v>
-      </c>
-      <c r="F120" t="s">
-        <v>220</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
